--- a/SeminarPaper/Model/input data/storages.xlsx
+++ b/SeminarPaper/Model/input data/storages.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53EA3C-C9B5-4FE1-8BBA-F76937E056A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AB65A-4864-4485-90AF-0DD9BCFA0FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">Technology    	</t>
   </si>
@@ -68,6 +73,33 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.9			</t>
+  </si>
+  <si>
+    <t>New Annuities seperated in Power and Energy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>PumpedStor</t>
+  </si>
+  <si>
+    <t>BatteryStor</t>
+  </si>
+  <si>
+    <t>InvestmentCost[EUR/kWh]</t>
+  </si>
+  <si>
+    <t>InvestmentCost[EUR/MWh]</t>
+  </si>
+  <si>
+    <t>annuity_oc_power[€/MWa]</t>
+  </si>
+  <si>
+    <t>annuity_oc_energy[€/MWha]</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -103,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -385,22 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
@@ -511,6 +546,110 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1340</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9*1000</f>
+        <v>1340000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <f>(((1+B12)^F9*B12)/((1+B12)^F9-1))*C9</f>
+        <v>70789.767266504772</v>
+      </c>
+      <c r="H9">
+        <f>(((1+B12)^F9)/((1+B12)^F9-1))*E9</f>
+        <v>10565.636905448473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10*1000</f>
+        <v>131000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>450</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10*1000</f>
+        <v>450000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f>(((1+B13)^F10*B13)/((1+B13)^F10-1))*C10</f>
+        <v>10511.778921980562</v>
+      </c>
+      <c r="H10">
+        <f>(((1+B13)^F10)/((1+B13)^F10-1))*E10</f>
+        <v>722183.28471622174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeminarPaper/Model/input data/storages.xlsx
+++ b/SeminarPaper/Model/input data/storages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AB65A-4864-4485-90AF-0DD9BCFA0FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76219A12-E064-4005-9CD8-A60BD56CBC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,11 +582,11 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>1340</v>
+        <v>1220</v>
       </c>
       <c r="C9" s="1">
         <f>B9*1000</f>
-        <v>1340000</v>
+        <v>1220000</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="G9">
         <f>(((1+B12)^F9*B12)/((1+B12)^F9-1))*C9</f>
-        <v>70789.767266504772</v>
+        <v>64450.38512323569</v>
       </c>
       <c r="H9">
         <f>(((1+B12)^F9)/((1+B12)^F9-1))*E9</f>
